--- a/carga/resultados prueba de carga.xlsx
+++ b/carga/resultados prueba de carga.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -4665,7 +4665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
